--- a/TODOS_PLANES_AKADEMIC.xlsx
+++ b/TODOS_PLANES_AKADEMIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - UNIVERSIDAD AUTONOMA DE ICA\Escritorio\regulazizacion-aka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C940E0-C8E8-4813-B457-F09CF68EB83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE286F-036F-4860-8A99-5D5A3FCCE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
